--- a/T41_V012_Files/T41_V012_Design_Documents/T41_V12.6_I2C_Assignments.xlsx
+++ b/T41_V012_Files/T41_V012_Design_Documents/T41_V12.6_I2C_Assignments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_Design_Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files\T41_V012_Design_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D1551C-60BA-42D6-BF17-01AE0814632D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7303E18-5460-48BC-8C1E-F2A956AA05B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,12 +488,6 @@
     <t xml:space="preserve"> Frequency Control - Primary Receiver and Transmitter (0x60), Second Receiver (0x61 or 0x6F)</t>
   </si>
   <si>
-    <t>0x22/ 0x23</t>
-  </si>
-  <si>
-    <t>010/ 011</t>
-  </si>
-  <si>
     <t>RC-0.5 dB Receive Signal Reduction ["1"=On, "0"= Off]</t>
   </si>
   <si>
@@ -681,6 +675,12 @@
   </si>
   <si>
     <t>MCP23017 for Band LPF Selection 160M-6M+Bypass, 1-4 Antenna Selection, XVTR Selection, 100W Module Selection, BPF TX &amp; RX Selection.</t>
+  </si>
+  <si>
+    <t>0x27/ 0x23</t>
+  </si>
+  <si>
+    <t>111/ 011</t>
   </si>
 </sst>
 </file>
@@ -1200,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1616,7 +1616,7 @@
         <v>60</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1630,7 +1630,7 @@
         <v>63</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="7" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2469,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ25"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -2595,19 +2595,19 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>89</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -2625,7 +2625,7 @@
         <v>92</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -2633,7 +2633,7 @@
         <v>94</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
@@ -2641,7 +2641,7 @@
         <v>96</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
@@ -2649,7 +2649,7 @@
         <v>98</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -2657,7 +2657,7 @@
         <v>100</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
@@ -2665,7 +2665,7 @@
         <v>102</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
@@ -2673,7 +2673,7 @@
         <v>104</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -2681,7 +2681,7 @@
         <v>106</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
@@ -2689,7 +2689,7 @@
         <v>108</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
@@ -2697,7 +2697,7 @@
         <v>110</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
@@ -2705,7 +2705,7 @@
         <v>112</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
@@ -2713,7 +2713,7 @@
         <v>114</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
@@ -2721,7 +2721,7 @@
         <v>116</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
@@ -2729,7 +2729,7 @@
         <v>118</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
@@ -2737,12 +2737,12 @@
         <v>120</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2780,7 +2780,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2897,7 +2897,7 @@
     </row>
     <row r="6" spans="1:26" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2950,10 +2950,10 @@
         <v>90</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>90</v>
@@ -3013,7 +3013,7 @@
         <v>92</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -3043,10 +3043,10 @@
         <v>94</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -3109,10 +3109,10 @@
         <v>96</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>98</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>100</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -3307,10 +3307,10 @@
         <v>102</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -3373,10 +3373,10 @@
         <v>104</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>106</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>108</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -3571,10 +3571,10 @@
         <v>110</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
@@ -3637,10 +3637,10 @@
         <v>112</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -3703,10 +3703,10 @@
         <v>114</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -3769,10 +3769,10 @@
         <v>116</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>118</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3867,7 +3867,7 @@
         <v>120</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
@@ -3918,10 +3918,10 @@
         <v>90</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>90</v>
@@ -3984,7 +3984,7 @@
         <v>92</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -4016,10 +4016,10 @@
         <v>94</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -4082,10 +4082,10 @@
         <v>96</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>98</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -4214,10 +4214,10 @@
         <v>100</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -4280,10 +4280,10 @@
         <v>102</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -4346,10 +4346,10 @@
         <v>104</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -4412,10 +4412,10 @@
         <v>106</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
@@ -4478,10 +4478,10 @@
         <v>108</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -4544,10 +4544,10 @@
         <v>110</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K35" s="1">
         <v>1</v>
@@ -4610,10 +4610,10 @@
         <v>112</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -4676,10 +4676,10 @@
         <v>114</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K37" s="1">
         <v>0</v>
@@ -4742,10 +4742,10 @@
         <v>116</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K38" s="1">
         <v>0</v>
@@ -4808,7 +4808,7 @@
         <v>118</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -4840,7 +4840,7 @@
         <v>120</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -4893,7 +4893,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -4998,10 +4998,10 @@
         <v>90</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>112</v>
@@ -5025,7 +5025,7 @@
         <v>92</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -5043,10 +5043,10 @@
         <v>94</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -5073,10 +5073,10 @@
         <v>96</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -5103,10 +5103,10 @@
         <v>98</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -5133,10 +5133,10 @@
         <v>100</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -5163,10 +5163,10 @@
         <v>102</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -5193,10 +5193,10 @@
         <v>104</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -5223,10 +5223,10 @@
         <v>106</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -5253,10 +5253,10 @@
         <v>108</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -5283,10 +5283,10 @@
         <v>110</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -5313,10 +5313,10 @@
         <v>112</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
@@ -5343,10 +5343,10 @@
         <v>114</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -5373,10 +5373,10 @@
         <v>116</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
@@ -5403,7 +5403,7 @@
         <v>118</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -5423,7 +5423,7 @@
         <v>120</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -5461,16 +5461,16 @@
         <v>63</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -5493,10 +5493,10 @@
         <v>15</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -5511,10 +5511,10 @@
       <c r="D25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -5531,10 +5531,10 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -5597,7 +5597,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -5680,7 +5680,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">

--- a/T41_V012_Files/T41_V012_Design_Documents/T41_V12.6_I2C_Assignments.xlsx
+++ b/T41_V012_Files/T41_V012_Design_Documents/T41_V12.6_I2C_Assignments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files\T41_V012_Design_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7303E18-5460-48BC-8C1E-F2A956AA05B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D19CE9-72FB-489B-A75E-9AAD5949F93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,9 @@
     <sheet name="RF Board" sheetId="4" r:id="rId4"/>
     <sheet name="BPF Board" sheetId="5" r:id="rId5"/>
     <sheet name="LPF Board" sheetId="6" r:id="rId6"/>
-    <sheet name="VHF Board" sheetId="7" r:id="rId7"/>
-    <sheet name="100W Module" sheetId="8" r:id="rId8"/>
-    <sheet name="ATU Module" sheetId="9" r:id="rId9"/>
+    <sheet name="ATU Module" sheetId="9" r:id="rId7"/>
+    <sheet name="VHF Board" sheetId="7" r:id="rId8"/>
+    <sheet name="100W Module" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="231">
   <si>
     <t>I2C Addresses For The T41 V012.6</t>
   </si>
@@ -249,9 +249,6 @@
   </si>
   <si>
     <t>MCP3021A0T 2xRD100HHF1 Current Draw</t>
-  </si>
-  <si>
-    <t>Band, Tune, Status, Control</t>
   </si>
   <si>
     <t>ATU</t>
@@ -681,6 +678,75 @@
   </si>
   <si>
     <t>111/ 011</t>
+  </si>
+  <si>
+    <t>ATU Module - I2C Addresses</t>
+  </si>
+  <si>
+    <t>MCP23008</t>
+  </si>
+  <si>
+    <t>MCP21017 for selecting 8-Inductors, 8-Capacitors</t>
+  </si>
+  <si>
+    <t>MCP21008 for selecting Configuration, Bypass, Transformer</t>
+  </si>
+  <si>
+    <t>C1 - 10pF</t>
+  </si>
+  <si>
+    <t>L1 - 0.05uH</t>
+  </si>
+  <si>
+    <t>L6 - 2.2uH</t>
+  </si>
+  <si>
+    <t>Configuration - LC or CL</t>
+  </si>
+  <si>
+    <t>Transformer/ Balanced Line Output</t>
+  </si>
+  <si>
+    <t>Bypass ATU</t>
+  </si>
+  <si>
+    <t>L3 - 0.22uH</t>
+  </si>
+  <si>
+    <t>L4 - 0.45uH</t>
+  </si>
+  <si>
+    <t>L5 - 1.0uH</t>
+  </si>
+  <si>
+    <t>L2 - 0.10uH</t>
+  </si>
+  <si>
+    <t>L7 - 4.4uH</t>
+  </si>
+  <si>
+    <t>L8 - 8.8uH</t>
+  </si>
+  <si>
+    <t>C2 - 22pF</t>
+  </si>
+  <si>
+    <t>C3 - 47pF</t>
+  </si>
+  <si>
+    <t>C4 - 100pF</t>
+  </si>
+  <si>
+    <t>C5 - 220pF</t>
+  </si>
+  <si>
+    <t>C6 - 470pF</t>
+  </si>
+  <si>
+    <t>C7 - 1000pF</t>
+  </si>
+  <si>
+    <t>C8 - 2000pF</t>
   </si>
 </sst>
 </file>
@@ -805,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -864,6 +930,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1200,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1616,7 +1685,7 @@
         <v>60</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1630,7 +1699,7 @@
         <v>63</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="7" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1728,7 +1797,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>27</v>
@@ -1740,18 +1809,30 @@
         <v>5</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="I32" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="7" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="7" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1761,9 +1842,9 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1793,7 +1874,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -1819,10 +1900,10 @@
         <v>8</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -1862,21 +1943,21 @@
         <v>5</v>
       </c>
       <c r="E6" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>27</v>
@@ -1888,18 +1969,18 @@
         <v>5</v>
       </c>
       <c r="E7" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="I7" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +2011,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -1959,10 +2040,10 @@
         <v>8</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>76</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2014,13 +2095,13 @@
         <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="H6" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2032,16 +2113,16 @@
         <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2050,10 +2131,10 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="H8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2065,10 +2146,10 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2080,10 +2161,10 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2095,10 +2176,10 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2110,10 +2191,10 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2125,10 +2206,10 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2140,10 +2221,10 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2155,10 +2236,10 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2170,10 +2251,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2185,10 +2266,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2200,10 +2281,10 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2215,10 +2296,10 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2230,10 +2311,10 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2245,10 +2326,10 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2260,10 +2341,10 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2272,19 +2353,19 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2296,10 +2377,10 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2317,10 +2398,10 @@
         <v>15</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2332,10 +2413,10 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2347,10 +2428,10 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2362,10 +2443,10 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2381,82 +2462,82 @@
         <v>15</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H30" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H32" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H33" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H34" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H35" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="8:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H38" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2489,7 +2570,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -2506,7 +2587,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>8</v>
@@ -2515,10 +2596,10 @@
         <v>8</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -2569,16 +2650,16 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -2595,19 +2676,19 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="H8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="I8" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -2622,127 +2703,127 @@
         <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H14" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H15" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H16" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H17" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H18" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H19" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H20" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H21" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H22" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H23" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2780,7 +2861,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2806,10 +2887,10 @@
         <v>8</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>77</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2897,7 +2978,7 @@
     </row>
     <row r="6" spans="1:26" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2941,67 +3022,67 @@
         <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -3010,10 +3091,10 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -3040,13 +3121,13 @@
       <c r="D9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -3106,13 +3187,13 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -3172,13 +3253,13 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -3238,13 +3319,13 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -3304,13 +3385,13 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -3370,13 +3451,13 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -3436,13 +3517,13 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -3502,13 +3583,13 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -3568,13 +3649,13 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
@@ -3634,13 +3715,13 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -3700,13 +3781,13 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -3766,13 +3847,13 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -3832,10 +3913,10 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3864,10 +3945,10 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3889,7 +3970,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
@@ -3909,67 +3990,67 @@
         <v>56</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="K25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
@@ -3981,10 +4062,10 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -4013,13 +4094,13 @@
       <c r="F27" s="2"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -4079,13 +4160,13 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I28" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -4145,13 +4226,13 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -4211,13 +4292,13 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -4277,13 +4358,13 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -4343,13 +4424,13 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -4409,13 +4490,13 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
@@ -4475,13 +4556,13 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -4541,13 +4622,13 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I35" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="K35" s="1">
         <v>1</v>
@@ -4607,13 +4688,13 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I36" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -4673,13 +4754,13 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I37" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="K37" s="1">
         <v>0</v>
@@ -4739,13 +4820,13 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I38" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="K38" s="1">
         <v>0</v>
@@ -4805,10 +4886,10 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -4837,10 +4918,10 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -4871,7 +4952,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4893,7 +4974,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -4919,10 +5000,10 @@
         <v>8</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>77</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -4989,31 +5070,31 @@
         <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -5022,10 +5103,10 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -5040,13 +5121,13 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -5070,13 +5151,13 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -5100,13 +5181,13 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -5130,13 +5211,13 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -5160,13 +5241,13 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -5190,13 +5271,13 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -5220,13 +5301,13 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -5250,13 +5331,13 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -5280,13 +5361,13 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -5310,13 +5391,13 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
@@ -5340,13 +5421,13 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -5370,13 +5451,13 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
@@ -5400,10 +5481,10 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -5420,10 +5501,10 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -5461,16 +5542,16 @@
         <v>63</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -5493,10 +5574,10 @@
         <v>15</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -5511,10 +5592,10 @@
       <c r="D25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -5531,10 +5612,10 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -5583,6 +5664,484 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.26953125" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
+    <col min="3" max="3" width="3.90625" customWidth="1"/>
+    <col min="4" max="4" width="4.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" customWidth="1"/>
+    <col min="9" max="9" width="37.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMJ6"/>
   <sheetViews>
@@ -5597,7 +6156,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -5623,10 +6182,10 @@
         <v>8</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -5663,7 +6222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMJ6"/>
   <sheetViews>
@@ -5680,7 +6239,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -5706,10 +6265,10 @@
         <v>8</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -5737,27 +6296,6 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B6" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B3"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
         <v>65</v>
       </c>
     </row>
